--- a/data/续航测试.xlsx
+++ b/data/续航测试.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>70cm/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,19 +45,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+</t>
+    <t>光滑地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30cm/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始电压V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束电压V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路程m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70cm/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论：机器人安全电压为22.5V，综合以上数据，机器人可以达到20min以上续航</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -121,6 +137,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -419,7 +438,7 @@
     <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -430,82 +449,141 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
+      <c r="C2" s="1">
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>24.87</v>
       </c>
       <c r="E2" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24.7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>24.56</v>
+      </c>
+      <c r="F3" s="1">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>24.56</v>
+      </c>
+      <c r="E4" s="1">
+        <v>24.43</v>
+      </c>
+      <c r="F4" s="1">
+        <v>90</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>24.43</v>
+      </c>
+      <c r="E5" s="1">
+        <v>24.24</v>
+      </c>
+      <c r="F5" s="1">
+        <v>210</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -513,6 +591,9 @@
       <c r="E10" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
